--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3550829.812528</v>
+        <v>3654855.864388507</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7689913.072086161</v>
+        <v>7653753.359804607</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>124.1813455033568</v>
+        <v>212.3074227795177</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -871,10 +873,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>132.264293789193</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>60.77665083178222</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>120.3577665219461</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35112070699554</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1105,22 +1107,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>82.57906258117926</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>264.9282693816767</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>228.0656025585473</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>317.1210202291554</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>160.0403790870792</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>52.3272495929692</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>39.17658763086867</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>95.81917536083746</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>22.65115569188789</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>23.10998325717215</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187853</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>142.7059665293332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>15.76045942438941</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652696</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>166.684983322743</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>82.08837997182205</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261737</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002303</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>195.5924396063268</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652731</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808189</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>218.0251557872777</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855436</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150248</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>584.6815723082743</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E2" t="n">
-        <v>198.8933197100301</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F2" t="n">
-        <v>191.9478189608266</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2339.808314550148</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.872131622241</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622241</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039848</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541938</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916657</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178696</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>2970.238909421935</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>2970.238909421935</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="W4" t="n">
-        <v>2970.238909421935</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X4" t="n">
-        <v>2742.249358523918</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y4" t="n">
-        <v>2521.456779380388</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835253</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894841</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288091</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898465</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>541.107849900239</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452355</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875187</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899375</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1562.365012146403</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="W7" t="n">
-        <v>612.6199236553855</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>384.6303727573681</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2277.953133796416</v>
+        <v>1285.277735635578</v>
       </c>
       <c r="C8" t="n">
-        <v>1908.990616856005</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D8" t="n">
-        <v>1550.724918249254</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.93666565101</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>753.9507608614024</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>338.8783107063988</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4804,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,7 +4822,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796416</v>
+        <v>2062.016907675511</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796416</v>
+        <v>1671.877575699699</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.6939999491682</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1765.637599515685</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1543.870984085212</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1254.768117210855</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1000.083629004968</v>
       </c>
       <c r="W10" t="n">
-        <v>1049.135043922938</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.135043922938</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.3424647794079</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892237</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768879</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768879</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753335</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1600804794589</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>117.1600804794589</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,37 +6241,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424045</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>526.5658826424045</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319335</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656828</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150035</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942666</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580125</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345487</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384031</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3763.887252650066</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>3474.470082613106</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>3246.480531715089</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>3025.687952571559</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961267</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319335</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656828</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319335</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656828</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150035</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942666</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580125</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2066.540128420693</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="41">
@@ -7397,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819251</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,22 +7496,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319336</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656829</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150036</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942668</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580128</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345491</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384035</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7737,10 +7739,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>212.9610556929593</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>69.70496293143138</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.7828069546813</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.1847295890517</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.727996117236017</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>129.6605885985418</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>85.45266000108498</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>64.34558267474712</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>21.81301072096147</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>68.49784254931333</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670252.1831216977</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
@@ -26332,28 +26334,28 @@
         <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710695</v>
-      </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26368,7 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363181</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26439,22 +26441,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994852</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994852</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994852</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994852</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.7917661231</v>
+        <v>-750092.791766123</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.9539614693</v>
+        <v>578651.953961469</v>
       </c>
       <c r="D6" t="n">
         <v>578651.9539614692</v>
@@ -26531,7 +26533,7 @@
         <v>326037.5259973883</v>
       </c>
       <c r="F6" t="n">
-        <v>651449.9878047438</v>
+        <v>651449.9878047436</v>
       </c>
       <c r="G6" t="n">
         <v>651449.9878047437</v>
@@ -26540,28 +26542,28 @@
         <v>651449.9878047435</v>
       </c>
       <c r="I6" t="n">
+        <v>651449.9878047442</v>
+      </c>
+      <c r="J6" t="n">
+        <v>433918.7854074663</v>
+      </c>
+      <c r="K6" t="n">
+        <v>651449.9878047439</v>
+      </c>
+      <c r="L6" t="n">
+        <v>651449.9878047436</v>
+      </c>
+      <c r="M6" t="n">
+        <v>566394.9598692317</v>
+      </c>
+      <c r="N6" t="n">
         <v>651449.9878047437</v>
       </c>
-      <c r="J6" t="n">
-        <v>433918.7854074662</v>
-      </c>
-      <c r="K6" t="n">
-        <v>635190.2361835735</v>
-      </c>
-      <c r="L6" t="n">
-        <v>654617.9541772056</v>
-      </c>
-      <c r="M6" t="n">
-        <v>569562.9262416938</v>
-      </c>
-      <c r="N6" t="n">
-        <v>654617.9541772055</v>
-      </c>
       <c r="O6" t="n">
-        <v>654617.9541772055</v>
+        <v>651449.9878047436</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047437</v>
+        <v>651449.9878047436</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26805,28 +26807,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>286.7403801500967</v>
+        <v>198.6143028739358</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>153.9475444164199</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>191.3609924920458</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>262.3760751415344</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>277.2566436803249</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>136.96988669499</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>21.59472895491433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>66.54216182877315</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>32.11994848825765</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>29.72864624436266</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.1957487436218</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31841,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>677.7372574190229</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,13 +32083,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33193,7 +33195,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
@@ -33257,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>436.0678650906011</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328822</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>535.1410129745784</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36841,7 +36843,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>302.0934576762708</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>191.3582339884378</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M42" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3654855.864388507</v>
+        <v>3650843.254374516</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>33.36619356526558</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>212.3074227795177</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>31.83188548727781</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,13 +876,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>60.77665083178222</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.3577665219461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>194.57272961248</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>79.58544726978076</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>82.57906258117926</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>286.4219379548105</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>317.1210202291554</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>160.0403790870792</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710102</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428342</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>39.17658763086867</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417144</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.0162797694411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158841</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581214</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960842</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.76045942438941</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>63.162813017127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>166.684983322743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>82.08837997182205</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227938</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.6427030833213</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>195.5924396063268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.25690685266579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.15319674221047</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979147</v>
+        <v>926.2736972002951</v>
       </c>
       <c r="D2" t="n">
-        <v>971.281412372397</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>585.4931597741527</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>578.5476590249492</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064764</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080143</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>711.2880532342227</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>561.171413821887</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>413.2583202394939</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>266.3683727415835</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>98.66553611630243</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>98.66553611630243</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1355.034509387922</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1355.034509387922</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>480.687070124138</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1846.905207411947</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1655.219323238773</v>
       </c>
       <c r="T7" t="n">
-        <v>1562.365012146403</v>
+        <v>1655.219323238773</v>
       </c>
       <c r="U7" t="n">
-        <v>1273.262145272047</v>
+        <v>1655.219323238773</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>1400.534835032886</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>1111.117664995925</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>883.1281140979079</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>662.3355349543777</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1510.867061270029</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1152.601362663278</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>766.8131100650339</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>355.8272052754264</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1765.637599515685</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1543.870984085212</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1254.768117210855</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1000.083629004968</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>710.6664589680076</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>710.6664589680076</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>710.6664589680076</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273916</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270461</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.1522880254209</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2161050975141</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,31 +6229,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="D28" t="n">
-        <v>481.447947124485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.687952571559</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3763.887252650066</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3474.470082613106</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3246.480531715089</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>3025.687952571559</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6685,28 +6685,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>802.9288273958744</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>633.9926444679675</v>
       </c>
       <c r="D34" t="n">
-        <v>572.9069687101817</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2066.540128420693</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1777.464901764891</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1522.780413559004</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1233.363243522043</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1005.373692624026</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>916.309900062227</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>747.3737171343201</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>597.2570777219844</v>
       </c>
       <c r="E43" t="n">
-        <v>301.5721730233224</v>
+        <v>449.3439841395913</v>
       </c>
       <c r="F43" t="n">
-        <v>154.6822255254121</v>
+        <v>449.3439841395913</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1478848544712</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4360536966693</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176862</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.157664970975</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1318.750944035997</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>1097.958364892467</v>
       </c>
     </row>
     <row r="44">
@@ -7642,28 +7642,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194044</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>138.4949402405064</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219408</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.5874149221281186</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>129.6605885985418</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>83.27114962944216</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>85.45266000108498</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>64.34558267474712</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.9259388694750044</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489108</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>21.81301072096147</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.11263957635504</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685493</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685491</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685497</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685497</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685496</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="F4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.7520768551</v>
-      </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26478,16 +26478,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.791766123</v>
+        <v>-750092.7917661231</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.953961469</v>
+        <v>578651.9539614697</v>
       </c>
       <c r="D6" t="n">
-        <v>578651.9539614692</v>
+        <v>578651.9539614695</v>
       </c>
       <c r="E6" t="n">
-        <v>326037.5259973883</v>
+        <v>325690.146743031</v>
       </c>
       <c r="F6" t="n">
-        <v>651449.9878047436</v>
+        <v>651102.6085503872</v>
       </c>
       <c r="G6" t="n">
-        <v>651449.9878047437</v>
+        <v>651102.608550387</v>
       </c>
       <c r="H6" t="n">
-        <v>651449.9878047435</v>
+        <v>651102.608550387</v>
       </c>
       <c r="I6" t="n">
-        <v>651449.9878047442</v>
+        <v>651102.6085503871</v>
       </c>
       <c r="J6" t="n">
-        <v>433918.7854074663</v>
+        <v>433571.4061531096</v>
       </c>
       <c r="K6" t="n">
-        <v>651449.9878047439</v>
+        <v>651102.608550387</v>
       </c>
       <c r="L6" t="n">
-        <v>651449.9878047436</v>
+        <v>651102.6085503867</v>
       </c>
       <c r="M6" t="n">
-        <v>566394.9598692317</v>
+        <v>566047.5806148746</v>
       </c>
       <c r="N6" t="n">
-        <v>651449.9878047437</v>
+        <v>651102.6085503867</v>
       </c>
       <c r="O6" t="n">
-        <v>651449.9878047436</v>
+        <v>651102.6085503867</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047436</v>
+        <v>651102.6085503872</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>321.3168480554174</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>198.6143028739358</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>64.52053492256027</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>191.3609924920458</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.3760751415344</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>191.6652090435736</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9.346705400266572</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>136.96988669499</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>124.4997876986429</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>32.11994848825765</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>29.72864624436266</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32636,31 +32636,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,37 +33259,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969394</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3650843.254374516</v>
+        <v>3652603.784677301</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>33.36619356526558</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>334.4146100199741</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>31.83188548727781</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.5892371762726</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.308803416235</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.57272961248</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>42.32069823344327</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>79.58544726978076</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>67.37512149318634</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>286.4219379548105</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710102</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701356</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428342</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417144</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.7518808581214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180381</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.0280580960842</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.162813017127</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5981994227938</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>70.58974991479215</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>110.1270172505054</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>46.15319674221047</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140707</v>
+        <v>1938.906022842681</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002951</v>
+        <v>1569.94350590227</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>1569.94350590227</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204829</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064764</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>880.2242361621296</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>711.2880532342227</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>561.171413821887</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>413.2583202394939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>266.3683727415835</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>98.66553611630243</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>98.66553611630243</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>880.2242361621296</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.2242361621296</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.687070124138</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962311</v>
+        <v>109.2602964659645</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1846.905207411947</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1655.219323238773</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1655.219323238773</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1655.219323238773</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1400.534835032886</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1111.117664995925</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>883.1281140979079</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.3355349543777</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.82957821044</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.867061270029</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.601362663278</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E8" t="n">
-        <v>766.8131100650339</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>355.8272052754264</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810557</v>
@@ -4816,7 +4816,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274562</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4962,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273916</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516149</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270461</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703128</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273913</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6141,34 +6141,34 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770328</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491259</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750803</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072725</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703119</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703119</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>695.5020655703119</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6618,55 +6618,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958744</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679675</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556317</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>483.8760050556317</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>483.8760050556317</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267662</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261141</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459591</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180522</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919729</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761988</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,7 +7499,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.309900062227</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343201</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219844</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395913</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>449.3439841395913</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>282.1478848544712</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4360536966693</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176862</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970975</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035997</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892467</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7730,16 +7730,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194044</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>45.8481303472993</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194126</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5874149221281186</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>83.27114962944216</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9259388694750044</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489108</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>36.30694539606372</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>35.11263957635504</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820632</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="D4" t="n">
-        <v>93403.78684820631</v>
-      </c>
       <c r="E4" t="n">
-        <v>14216.75207685493</v>
+        <v>14216.75207685502</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685491</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685496</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26478,16 +26478,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.7917661231</v>
+        <v>-750092.791766123</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.9539614697</v>
+        <v>578651.9539614693</v>
       </c>
       <c r="D6" t="n">
-        <v>578651.9539614695</v>
+        <v>578651.9539614692</v>
       </c>
       <c r="E6" t="n">
-        <v>325690.146743031</v>
+        <v>326002.7880719525</v>
       </c>
       <c r="F6" t="n">
-        <v>651102.6085503872</v>
+        <v>651415.2498793083</v>
       </c>
       <c r="G6" t="n">
-        <v>651102.608550387</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="H6" t="n">
-        <v>651102.608550387</v>
+        <v>651415.2498793079</v>
       </c>
       <c r="I6" t="n">
-        <v>651102.6085503871</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="J6" t="n">
-        <v>433571.4061531096</v>
+        <v>433884.0474820302</v>
       </c>
       <c r="K6" t="n">
-        <v>651102.608550387</v>
+        <v>651415.249879308</v>
       </c>
       <c r="L6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.2498793083</v>
       </c>
       <c r="M6" t="n">
-        <v>566047.5806148746</v>
+        <v>566360.2219437964</v>
       </c>
       <c r="N6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.2498793083</v>
       </c>
       <c r="O6" t="n">
-        <v>651102.6085503867</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="P6" t="n">
-        <v>651102.6085503872</v>
+        <v>651415.2498793082</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>321.3168480554174</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>47.5157600522877</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>64.52053492256027</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.12041821276455</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5672423254764</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.6652090435736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>106.2947747847691</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9.346705400266572</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>314.5552485790755</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>124.4997876986429</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-4.340940782190877e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774986</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
